--- a/Track two dialogue database.xlsx
+++ b/Track two dialogue database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berna\Documents\Grad school\Prosem\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berna\Documents\R\track-two-dialogues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3CABE3-C71E-4C52-B919-5AB7594E025C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF7C798-2BAB-48A0-A434-598A6AF2DFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{862A2EDB-63C4-4B07-B101-E010855B3AF9}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">Dialgoues </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -119,9 +116,6 @@
     <t xml:space="preserve">Notes </t>
   </si>
   <si>
-    <t xml:space="preserve">Funded by Carnegie </t>
-  </si>
-  <si>
     <t xml:space="preserve">U.S.-Russia Dialoge on International Security </t>
   </si>
   <si>
@@ -131,12 +125,6 @@
     <t xml:space="preserve">Jane Addams Peace Association, Inc meeting of international experts on arms control and disarmament </t>
   </si>
   <si>
-    <t xml:space="preserve">Conference on American, European and Russian perspectives towards missile defense </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internationl Physicians for the Prevention of Nuclear War, Inc </t>
-  </si>
-  <si>
     <t xml:space="preserve">RAND, Institute of U.S. and Canada Studies </t>
   </si>
   <si>
@@ -167,9 +155,6 @@
     <t>End date unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">Funded by Carnegie, end date unknown </t>
-  </si>
-  <si>
     <t xml:space="preserve">CSIS U.S. Russia Relations Initiative </t>
   </si>
   <si>
@@ -189,13 +174,253 @@
   </si>
   <si>
     <t>Unclear if there will be future meetings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnegie Corporation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $50,000 Toward a Moscowbased working group on U.S.-Russian relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toward the executive training programs
+for military officers and policymakers from
+Eurasia. $1,114,900. </t>
+  </si>
+  <si>
+    <t>Carnegie Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programs with Russian military personnel and policymakers on foreign and security policies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnegie Corportation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each year, the John F. Kennedy School of Government at Harvard University convences two executive programs, one for members of the Russian general staff and one for representatives of Russia's parliament. The military program joins 25 Russian generals and American officers from the four branches of the U.S. military for a two-week session of lectures and discussions on military, political, economic and foreign policy issues. The Duma program introducs 25 members of the Russian parliament drawn from across the political spectrum to the U.S. system of governance, including the political party system and the congresssional committee strucutre and procedures. The programs are administred in cooperation and on a cost-sharing basis with U.S. and Russian governmental agencies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvard Kennedy School </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussions between U.S. and Russian Policymakers conducted by the Aspen Strategy Group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspen Institute </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Aspen Strategy Group, a standing committee of the Aspen Institute, provides an unofficial channel for communications between U.S. and Russian leaders and policy analysts through its U.S.-Russia dialogue project. Members of the project meet biannually in Moscwo and in Washington, D.C. to generate joint proposals and initiatives that address critical geopolitical, security, and eocnomic issues. THe dialogues, essential to international security relatoins, are followed by post-session reports and briefings disseminated to government officials in both countries . The Council on Foreign and Defense Policy in Moscow co-administers the project. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">German-American-Russian Policy Dialogue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program on New Approaches to Russian Security </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Committee members and scientists and analysts from Russia are meeting to discuss the future of the Antiballistic Missile Treaty, increased arms reduction and nonproliferation efforts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promoting discussions between Americans, Russians and Europeans on Security Issues </t>
+  </si>
+  <si>
+    <t>Building on earlier efforts that focused on issues of concern to the United States, Germany, and Russia, the Watson Institute for International Stuides at Brown University is bringing together representatives of academia, business and finance form the United States, Russia, and several European nations in a series of policy dialogues. The project comprises three interdependent sets of activities; task forces of five to eight people; annual focused meetings of 20 experts and analysts drawn form teh regions; and a set of web-based materials pertaining to the project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carneige Corporation </t>
+  </si>
+  <si>
+    <t>International Research and Exchange Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialogues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute on East-West Studies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academics work on projects together </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federation of American Scientists-Committee of Soviet Scientists for Peace Against the Nuclear Threat </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Five year joint study on feasibility of verification measures related to arms control limitations. Resulted in briefings and a book, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reversing the Arms Race</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The Future of American-Soviet Relations in a Pluralistic World </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic Council, Institute of World Economy and Internatoinal Relations at the Soviet Academy of Sciences </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two year project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S.-Soviet Military to Military Dialogue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic Arms Control in the Post-START Era </t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Institute for Strategic Studies </t>
+  </si>
+  <si>
+    <t>Rockefeller Brothers Fund</t>
+  </si>
+  <si>
+    <t>MIT Science, Technology and Global Security Working Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacArthur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track twos in 2006-2009 period </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short name </t>
+  </si>
+  <si>
+    <t>Pugwash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dartmouth Confernece </t>
+  </si>
+  <si>
+    <t>NAS CISAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane Addams Peace Association </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAND working group on NATO-Russia cooperation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDU dialogue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEIP workign group on U.S.-Russia relations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nixon center project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elbe Group </t>
+  </si>
+  <si>
+    <t>NTI-CENESS dialogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIR-CNS working group on Strategic Stability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspen Strategy Group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKS (military/policymakers) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspen German-American-Russian Policy Dialogue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONARS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watson Institute dialogues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IREX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAS-Committee of Soviet Scientists for Peace </t>
+  </si>
+  <si>
+    <t>Atlantic Council-IMEMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSIS mil-to-mil dialogue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IISS Strateig Arms Control in the Post-START Era </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspen-SWAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKS programs for Russian mil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nixon Center Internatioanl Security Dialogue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPPNW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davis Center Working Group on U.S.-Russia relations </t>
+  </si>
+  <si>
+    <t>Davis Center Working Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg Forum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Physicsians for the Prevention of Nuclear War </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higher School of Economics, Davis Center </t>
+  </si>
+  <si>
+    <t>MIT Science, Tech &amp; Global Security Working Group</t>
+  </si>
+  <si>
+    <t>Ivanov-Talbott-Albright Dialogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arms Control Negotiation Academy </t>
+  </si>
+  <si>
+    <t>ACONA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +438,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -241,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -254,6 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,432 +803,904 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB829A12-B58E-43FC-8FC0-B2D51D61C2DC}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="1" max="2" width="64.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="8" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1957</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1960</v>
+      </c>
+      <c r="E3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1980</v>
+      </c>
+      <c r="E4">
+        <v>2020</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>2001</v>
+      </c>
+      <c r="E5">
+        <v>2002</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>2001</v>
+      </c>
+      <c r="E6">
+        <v>2002</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>2001</v>
+      </c>
+      <c r="E7">
+        <v>2005</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>2001</v>
+      </c>
+      <c r="E8">
+        <v>2001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>1980</v>
+      </c>
+      <c r="E9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>2001</v>
+      </c>
+      <c r="E10">
+        <v>2001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2007</v>
+      </c>
+      <c r="E11">
+        <v>2008</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2008</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2008</v>
+      </c>
+      <c r="E13">
+        <v>2008</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>2010</v>
+      </c>
+      <c r="E14">
+        <v>2020</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>2010</v>
+      </c>
+      <c r="E15">
+        <v>2014</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D16">
+        <v>2012</v>
+      </c>
+      <c r="E16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>1960</v>
-      </c>
-      <c r="D2">
+      <c r="D17">
+        <v>2013</v>
+      </c>
+      <c r="E17">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>1980</v>
-      </c>
-      <c r="D3">
+      <c r="D18">
+        <v>2016</v>
+      </c>
+      <c r="E18">
+        <v>2017</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>2016</v>
+      </c>
+      <c r="E19">
+        <v>2017</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>2017</v>
+      </c>
+      <c r="E20">
+        <v>2017</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E21">
         <v>2020</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
+      <c r="F21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E22">
+        <v>2019</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1996</v>
+      </c>
+      <c r="E23">
+        <v>2002</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1996</v>
+      </c>
+      <c r="E24">
+        <v>2000</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E25">
+        <v>2002</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1999</v>
+      </c>
+      <c r="E26">
+        <v>2020</v>
+      </c>
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2002</v>
+      </c>
+      <c r="E27">
+        <v>2004</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1984</v>
+      </c>
+      <c r="E28">
+        <v>2020</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1982</v>
+      </c>
+      <c r="E29">
+        <v>2020</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1987</v>
+      </c>
+      <c r="E30">
+        <v>1992</v>
+      </c>
+      <c r="I30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1990</v>
+      </c>
+      <c r="E31">
+        <v>1992</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1990</v>
+      </c>
+      <c r="E32">
+        <v>1990</v>
+      </c>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1990</v>
+      </c>
+      <c r="E33">
+        <v>1991</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>2005</v>
+      </c>
+      <c r="E34">
+        <v>2020</v>
+      </c>
+      <c r="F34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
         <v>2010</v>
       </c>
-      <c r="D4">
+      <c r="E35">
         <v>2020</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>2012</v>
-      </c>
-      <c r="D5">
+      <c r="F35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>2007</v>
+      </c>
+      <c r="E36">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
         <v>2010</v>
       </c>
-      <c r="D6">
+      <c r="E37">
         <v>2014</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>2013</v>
-      </c>
-      <c r="D7">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>2019</v>
+      </c>
+      <c r="E38">
         <v>2020</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>2017</v>
-      </c>
-      <c r="D8">
-        <v>2017</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>2016</v>
-      </c>
-      <c r="D9">
-        <v>2017</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>2016</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1957</v>
-      </c>
-      <c r="D11">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>2001</v>
-      </c>
-      <c r="D12">
-        <v>2002</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>2001</v>
-      </c>
-      <c r="D13">
-        <v>2001</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>2001</v>
-      </c>
-      <c r="D14">
-        <v>2001</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>2001</v>
-      </c>
-      <c r="D15">
-        <v>2001</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>2001</v>
-      </c>
-      <c r="D16">
-        <v>2001</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>2001</v>
-      </c>
-      <c r="D17">
-        <v>2001</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2008</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2008</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2007</v>
-      </c>
-      <c r="D19">
-        <v>2008</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2008</v>
-      </c>
-      <c r="D20">
-        <v>2008</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2017</v>
-      </c>
-      <c r="D21">
-        <v>2020</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>51</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I22">
+    <sortCondition ref="D1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.kettering.org/dartmouth-conference" xr:uid="{E29751BB-6FBB-4B00-811B-5EDAAEF01C12}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.nationalacademies.org/our-work/cisac-security-dialogues" xr:uid="{E2FC7ABF-7EF8-46C2-A8D2-8C3961F17D57}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.belfercenter.org/elbe-group/overview-elbe-group" xr:uid="{7EE3B263-37EB-4355-9BBB-3737CB43FE7C}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://www.fortross.org/dialogue.htm" xr:uid="{59CBEC4D-5333-484A-8BCE-EE8B5A159630}"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://pircenter.org/en/projects/32-sustainable-partnership-with-russia-group" xr:uid="{59CB82BA-C0A4-42C1-81EE-F4F458E8F32E}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://deepcuts.org/purpose/" xr:uid="{9ACD7FAE-F8A9-46D9-9F7B-4B2564888A84}"/>
-    <hyperlink ref="A9" r:id="rId7" display="http://pircenter.org/en/pages/1014-7466266" xr:uid="{AB8CDD42-EAAE-4363-9003-99BCC1127ECB}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{61EA907B-5BD6-4775-9DAF-E80E386EA4CD}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.kettering.org/dartmouth-conference" xr:uid="{E29751BB-6FBB-4B00-811B-5EDAAEF01C12}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.nationalacademies.org/our-work/cisac-security-dialogues" xr:uid="{E2FC7ABF-7EF8-46C2-A8D2-8C3961F17D57}"/>
+    <hyperlink ref="A14" r:id="rId3" display="https://www.belfercenter.org/elbe-group/overview-elbe-group" xr:uid="{7EE3B263-37EB-4355-9BBB-3737CB43FE7C}"/>
+    <hyperlink ref="A16" r:id="rId4" display="https://www.fortross.org/dialogue.htm" xr:uid="{59CBEC4D-5333-484A-8BCE-EE8B5A159630}"/>
+    <hyperlink ref="A15" r:id="rId5" display="http://pircenter.org/en/projects/32-sustainable-partnership-with-russia-group" xr:uid="{59CB82BA-C0A4-42C1-81EE-F4F458E8F32E}"/>
+    <hyperlink ref="A17" r:id="rId6" display="https://deepcuts.org/purpose/" xr:uid="{9ACD7FAE-F8A9-46D9-9F7B-4B2564888A84}"/>
+    <hyperlink ref="A18" r:id="rId7" display="http://pircenter.org/en/pages/1014-7466266" xr:uid="{AB8CDD42-EAAE-4363-9003-99BCC1127ECB}"/>
+    <hyperlink ref="A19" r:id="rId8" xr:uid="{61EA907B-5BD6-4775-9DAF-E80E386EA4CD}"/>
     <hyperlink ref="A21" r:id="rId9" xr:uid="{CCCDCE8D-4338-486E-A3EC-1C0F07B900B6}"/>
     <hyperlink ref="A22" r:id="rId10" xr:uid="{5B04EB3D-9D0C-4173-A92C-17428F9E3948}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{6F0D425F-D15B-46F7-A198-F375752BEFB6}"/>
+    <hyperlink ref="A11" r:id="rId12" xr:uid="{C587E279-9DF8-4393-B337-D847C09EBC58}"/>
+    <hyperlink ref="A23" r:id="rId13" xr:uid="{C07D87B6-6E33-4CEE-AD91-3326F9617BE5}"/>
+    <hyperlink ref="A24" r:id="rId14" xr:uid="{67FB9CB0-C9B7-4C97-B72A-803A2D2A785F}"/>
+    <hyperlink ref="A25" r:id="rId15" xr:uid="{7F08B619-19F4-4972-9C96-004A3C7F2D92}"/>
+    <hyperlink ref="A26" r:id="rId16" xr:uid="{AF17A5C8-D612-4004-BF0A-1480E11B1C71}"/>
+    <hyperlink ref="A29" r:id="rId17" xr:uid="{312DA59F-508E-411E-8A97-1F0AA052C563}"/>
+    <hyperlink ref="A33" r:id="rId18" xr:uid="{9B566080-490A-4FC4-B2E0-BB8BFDE66EDC}"/>
+    <hyperlink ref="A34" r:id="rId19" xr:uid="{2FA1293D-230A-4AB0-903D-A0361BB21956}"/>
+    <hyperlink ref="B16" r:id="rId20" display="https://www.fortross.org/dialogue.htm" xr:uid="{9FC26A8F-77F2-430E-B681-48879B372323}"/>
+    <hyperlink ref="B15" r:id="rId21" display="http://pircenter.org/en/projects/32-sustainable-partnership-with-russia-group" xr:uid="{D2B23D1F-D2E9-40C3-BC20-8C493C9F2273}"/>
+    <hyperlink ref="B17" r:id="rId22" display="https://deepcuts.org/purpose/" xr:uid="{46554F68-B1CE-4379-93A5-588685265A19}"/>
+    <hyperlink ref="B18" r:id="rId23" display="http://pircenter.org/en/pages/1014-7466266" xr:uid="{3D983EB7-611B-4666-8530-54D4B749A451}"/>
+    <hyperlink ref="B19" r:id="rId24" display="NTI-CENESS " xr:uid="{CF6F763D-5293-4951-B4AC-DC725A07442D}"/>
+    <hyperlink ref="B21" r:id="rId25" xr:uid="{22781191-7E0B-40D6-85E1-BA5833EAD9FC}"/>
+    <hyperlink ref="B22" r:id="rId26" xr:uid="{3492A637-0E72-4606-B9BE-234FE94EE332}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{A4D7D72E-333B-479A-8303-07BF58D61062}"/>
+    <hyperlink ref="B34" r:id="rId28" display="MIT Science, Technology and Global Security Working Group" xr:uid="{2DE68D28-8C7E-4973-BC8A-A454E6DD0E72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
 </worksheet>
 </file>
--- a/Track two dialogue database.xlsx
+++ b/Track two dialogue database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berna\Documents\R\track-two-dialogues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF7C798-2BAB-48A0-A434-598A6AF2DFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DF4023-68D9-412E-8AC4-ABC330F87D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{862A2EDB-63C4-4B07-B101-E010855B3AF9}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">End Date </t>
   </si>
   <si>
-    <t>CISAC Russia Dialogue</t>
-  </si>
-  <si>
     <t xml:space="preserve">Elbe group </t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>Pugwash</t>
   </si>
   <si>
-    <t xml:space="preserve">Dartmouth Confernece </t>
-  </si>
-  <si>
     <t>NAS CISAC</t>
   </si>
   <si>
@@ -332,9 +326,6 @@
     <t xml:space="preserve">NDU dialogue </t>
   </si>
   <si>
-    <t xml:space="preserve">CEIP workign group on U.S.-Russia relations </t>
-  </si>
-  <si>
     <t xml:space="preserve">Nixon center project </t>
   </si>
   <si>
@@ -414,6 +405,15 @@
   </si>
   <si>
     <t>ACONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEIP working group on U.S.-Russia relations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dartmouth Conference </t>
+  </si>
+  <si>
+    <t>National Academy of Sciences Committee on International Security and Arms Control Russia Dialogue</t>
   </si>
 </sst>
 </file>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB829A12-B58E-43FC-8FC0-B2D51D61C2DC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,13 +819,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -834,27 +834,27 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1957</v>
@@ -868,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>1960</v>
@@ -882,13 +882,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1980</v>
@@ -897,24 +897,24 @@
         <v>2020</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>2001</v>
@@ -923,21 +923,21 @@
         <v>2002</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>2001</v>
@@ -946,27 +946,27 @@
         <v>2002</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2001</v>
@@ -975,24 +975,24 @@
         <v>2005</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>2001</v>
@@ -1001,18 +1001,18 @@
         <v>2001</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>1980</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>2001</v>
@@ -1038,21 +1038,21 @@
         <v>2001</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5">
         <v>2007</v>
@@ -1061,27 +1061,27 @@
         <v>2008</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5">
         <v>2008</v>
@@ -1090,27 +1090,27 @@
         <v>2008</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5">
         <v>2008</v>
@@ -1119,25 +1119,25 @@
         <v>2008</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>2010</v>
@@ -1146,18 +1146,18 @@
         <v>2020</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>2010</v>
@@ -1166,18 +1166,18 @@
         <v>2014</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>2012</v>
@@ -1188,13 +1188,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>2013</v>
@@ -1203,18 +1203,18 @@
         <v>2020</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>2016</v>
@@ -1223,18 +1223,18 @@
         <v>2017</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>2016</v>
@@ -1243,18 +1243,18 @@
         <v>2017</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>2017</v>
@@ -1263,21 +1263,21 @@
         <v>2017</v>
       </c>
       <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
         <v>38</v>
-      </c>
-      <c r="I20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="5">
         <v>2017</v>
@@ -1286,20 +1286,20 @@
         <v>2020</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5">
         <v>2019</v>
@@ -1308,23 +1308,23 @@
         <v>2019</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="5">
         <v>1996</v>
@@ -1333,27 +1333,27 @@
         <v>2002</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
         <v>56</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>57</v>
-      </c>
-      <c r="I23" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="5">
         <v>1996</v>
@@ -1362,24 +1362,24 @@
         <v>2000</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
         <v>61</v>
-      </c>
-      <c r="H24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="5">
         <v>2000</v>
@@ -1388,21 +1388,21 @@
         <v>2002</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="5">
         <v>1999</v>
@@ -1411,18 +1411,18 @@
         <v>2020</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="5">
         <v>2002</v>
@@ -1431,24 +1431,24 @@
         <v>2004</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="5">
         <v>1984</v>
@@ -1457,18 +1457,18 @@
         <v>2020</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="5">
         <v>1982</v>
@@ -1477,18 +1477,18 @@
         <v>2020</v>
       </c>
       <c r="I29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="5">
         <v>1987</v>
@@ -1497,18 +1497,18 @@
         <v>1992</v>
       </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="5">
         <v>1990</v>
@@ -1517,21 +1517,21 @@
         <v>1992</v>
       </c>
       <c r="F31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" t="s">
         <v>76</v>
-      </c>
-      <c r="I31" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="5">
         <v>1990</v>
@@ -1540,18 +1540,18 @@
         <v>1990</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="5">
         <v>1990</v>
@@ -1560,24 +1560,24 @@
         <v>1991</v>
       </c>
       <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
         <v>81</v>
-      </c>
-      <c r="G33" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>2005</v>
@@ -1586,24 +1586,24 @@
         <v>2020</v>
       </c>
       <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" t="s">
         <v>84</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>85</v>
-      </c>
-      <c r="I34" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>2010</v>
@@ -1612,18 +1612,18 @@
         <v>2020</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>2007</v>
@@ -1634,16 +1634,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E37">
         <v>2014</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>2019</v>

--- a/Track two dialogue database.xlsx
+++ b/Track two dialogue database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berna\Documents\R\track-two-dialogues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DF4023-68D9-412E-8AC4-ABC330F87D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68FF531-34FF-4F5B-AC02-14B70424BE26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{862A2EDB-63C4-4B07-B101-E010855B3AF9}"/>
+    <workbookView xWindow="9132" yWindow="2124" windowWidth="10356" windowHeight="8976" xr2:uid="{862A2EDB-63C4-4B07-B101-E010855B3AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB829A12-B58E-43FC-8FC0-B2D51D61C2DC}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
